--- a/outputs-HGR-r202/o__RFN20.xlsx
+++ b/outputs-HGR-r202/o__RFN20.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>f__CAG-631</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>f__CAG-631</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>f__CAG-631</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>f__CAG-631</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1037,6 +1142,11 @@
           <t>f__CAG-288</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1060,6 +1170,11 @@
         <v>0.9184961645745281</v>
       </c>
       <c r="G23" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>f__CAG-288</t>
         </is>

--- a/outputs-HGR-r202/o__RFN20.xlsx
+++ b/outputs-HGR-r202/o__RFN20.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,151 +511,151 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2139.fa</t>
+          <t>even_MAG-GUT16567.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001731339606990838</v>
+        <v>0.001193249856019255</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008884148453431238</v>
+        <v>0.01251059460852794</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9818106080955395</v>
+        <v>1.24515714025751e-08</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007573903844038317</v>
+        <v>0.9862961430838814</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9818106080955395</v>
+        <v>0.9862961430838814</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>f__CAG-631</t>
+          <t>f__CAG-826</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>f__CAG-631</t>
+          <t>f__CAG-826</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2306.fa</t>
+          <t>even_MAG-GUT2139.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9710753435550946</v>
+        <v>0.001731339606990838</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003450517315927605</v>
+        <v>0.008884148453431238</v>
       </c>
       <c r="D4" t="n">
-        <v>1.975168819320539e-05</v>
+        <v>0.9818106080955395</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02545438744078448</v>
+        <v>0.007573903844038317</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9710753435550946</v>
+        <v>0.9818106080955395</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>f__CAG-288</t>
+          <t>f__CAG-631</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>f__CAG-288</t>
+          <t>f__CAG-631</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2366.fa</t>
+          <t>even_MAG-GUT2306.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002135074143211402</v>
+        <v>0.9710753435550946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001708910104774054</v>
+        <v>0.003450517315927605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00111110491650656</v>
+        <v>1.975168819320539e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.998504496658695</v>
+        <v>0.02545438744078448</v>
       </c>
       <c r="F5" t="n">
-        <v>0.998504496658695</v>
+        <v>0.9710753435550946</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>f__CAG-826</t>
+          <t>f__CAG-288</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>f__CAG-826</t>
+          <t>f__CAG-288</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40025.fa</t>
+          <t>even_MAG-GUT2366.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9941347993918643</v>
+        <v>0.0002135074143211402</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004531162459066912</v>
+        <v>0.0001708910104774054</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001297555859509668</v>
+        <v>0.00111110491650656</v>
       </c>
       <c r="E6" t="n">
-        <v>3.648228955901675e-05</v>
+        <v>0.998504496658695</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9941347993918643</v>
+        <v>0.998504496658695</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>f__CAG-288</t>
+          <t>f__CAG-826</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>f__CAG-288</t>
+          <t>f__CAG-826</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40033.fa</t>
+          <t>even_MAG-GUT40025.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9870146044473926</v>
+        <v>0.9941347993918643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01037480530581358</v>
+        <v>0.004531162459066912</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002222194223613827</v>
+        <v>0.001297555859509668</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000388396023180023</v>
+        <v>3.648228955901675e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9870146044473926</v>
+        <v>0.9941347993918643</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -671,23 +671,23 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42613.fa</t>
+          <t>even_MAG-GUT40033.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9659132554815407</v>
+        <v>0.9870146044473926</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02085895668827807</v>
+        <v>0.01037480530581358</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01321641511716989</v>
+        <v>0.002222194223613827</v>
       </c>
       <c r="E8" t="n">
-        <v>1.137271301116888e-05</v>
+        <v>0.000388396023180023</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9659132554815407</v>
+        <v>0.9870146044473926</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -703,23 +703,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43773.fa</t>
+          <t>even_MAG-GUT42613.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8807534781757319</v>
+        <v>0.9659132554815407</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001045937248397364</v>
+        <v>0.02085895668827807</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001033012014518308</v>
+        <v>0.01321641511716989</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1190386268979765</v>
+        <v>1.137271301116888e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8807534781757319</v>
+        <v>0.9659132554815407</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,23 +735,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48445.fa</t>
+          <t>even_MAG-GUT43773.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9780070130459962</v>
+        <v>0.8807534781757319</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01867333535352027</v>
+        <v>0.0001045937248397364</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003261319285428793</v>
+        <v>0.0001033012014518308</v>
       </c>
       <c r="E10" t="n">
-        <v>5.833231505469923e-05</v>
+        <v>0.1190386268979765</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9780070130459962</v>
+        <v>0.8807534781757319</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -767,55 +767,55 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4942.fa</t>
+          <t>even_MAG-GUT46037.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001768764959527196</v>
+        <v>0.00115569214589027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01803999255938491</v>
+        <v>0.01101046645287277</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9697519415808021</v>
+        <v>7.230347575169342e-09</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01043930090028579</v>
+        <v>0.9878338341708893</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9697519415808021</v>
+        <v>0.9878338341708893</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>f__CAG-631</t>
+          <t>f__CAG-826</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>f__CAG-631</t>
+          <t>f__CAG-826</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65576.fa</t>
+          <t>even_MAG-GUT48445.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9941347993918643</v>
+        <v>0.9780070130459962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004531162459066912</v>
+        <v>0.01867333535352027</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001297555859509668</v>
+        <v>0.003261319285428793</v>
       </c>
       <c r="E12" t="n">
-        <v>3.648228955901675e-05</v>
+        <v>5.833231505469923e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9941347993918643</v>
+        <v>0.9780070130459962</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -831,55 +831,55 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65588.fa</t>
+          <t>even_MAG-GUT4942.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9870146044473926</v>
+        <v>0.001768764959527196</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01037480530581358</v>
+        <v>0.01803999255938491</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002222194223613827</v>
+        <v>0.9697519415808021</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000388396023180023</v>
+        <v>0.01043930090028579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9870146044473926</v>
+        <v>0.9697519415808021</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>f__CAG-288</t>
+          <t>f__CAG-631</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>f__CAG-288</t>
+          <t>f__CAG-631</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65671.fa</t>
+          <t>even_MAG-GUT65341.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.895305668022022e-07</v>
+        <v>0.0003418621858601654</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002919598458996971</v>
+        <v>0.008108923678330696</v>
       </c>
       <c r="D14" t="n">
-        <v>1.108582085275939e-06</v>
+        <v>1.228349632115166e-08</v>
       </c>
       <c r="E14" t="n">
-        <v>0.997078303428351</v>
+        <v>0.9915492018523129</v>
       </c>
       <c r="F14" t="n">
-        <v>0.997078303428351</v>
+        <v>0.9915492018523129</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -895,23 +895,23 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66322.fa</t>
+          <t>even_MAG-GUT65576.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9920390157543684</v>
+        <v>0.9941347993918643</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003954542770687538</v>
+        <v>0.004531162459066912</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003936507100285255</v>
+        <v>0.001297555859509668</v>
       </c>
       <c r="E15" t="n">
-        <v>6.993437465903105e-05</v>
+        <v>3.648228955901675e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9920390157543684</v>
+        <v>0.9941347993918643</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -927,23 +927,23 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66330.fa</t>
+          <t>even_MAG-GUT65588.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9755667477323808</v>
+        <v>0.9870146044473926</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009014799008169407</v>
+        <v>0.01037480530581358</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01538404147279698</v>
+        <v>0.002222194223613827</v>
       </c>
       <c r="E16" t="n">
-        <v>3.441178665272378e-05</v>
+        <v>0.000388396023180023</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9755667477323808</v>
+        <v>0.9870146044473926</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -959,55 +959,55 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66408.fa</t>
+          <t>even_MAG-GUT65671.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9992778845698301</v>
+        <v>9.895305668022022e-07</v>
       </c>
       <c r="C17" t="n">
-        <v>6.039482711728108e-05</v>
+        <v>0.002919598458996971</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004144653499188508</v>
+        <v>1.108582085275939e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0002472552531337603</v>
+        <v>0.997078303428351</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9992778845698301</v>
+        <v>0.997078303428351</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>f__CAG-288</t>
+          <t>f__CAG-826</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>f__CAG-288</t>
+          <t>f__CAG-826</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70620.fa</t>
+          <t>even_MAG-GUT66322.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9894267800825599</v>
+        <v>0.9920390157543684</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007669992442550568</v>
+        <v>0.003954542770687538</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002814830725546113</v>
+        <v>0.003936507100285255</v>
       </c>
       <c r="E18" t="n">
-        <v>8.839674934340925e-05</v>
+        <v>6.993437465903105e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9894267800825599</v>
+        <v>0.9920390157543684</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1023,23 +1023,23 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70664.fa</t>
+          <t>even_MAG-GUT66330.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9972977257104895</v>
+        <v>0.9755667477323808</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005578540522462376</v>
+        <v>0.009014799008169407</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0003532679097307401</v>
+        <v>0.01538404147279698</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001791152327533422</v>
+        <v>3.441178665272378e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9972977257104895</v>
+        <v>0.9755667477323808</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1055,30 +1055,126 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT66408.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9992778845698301</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.039482711728108e-05</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0004144653499188508</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0002472552531337603</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9992778845698301</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT70620.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9894267800825599</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.007669992442550568</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.002814830725546113</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.839674934340925e-05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9894267800825599</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT70664.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9972977257104895</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0005578540522462376</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0003532679097307401</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001791152327533422</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9972977257104895</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT71751.fa</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B23" t="n">
         <v>0.9184961645745281</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C23" t="n">
         <v>0.0002832721388419307</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D23" t="n">
         <v>0.0002837263455128949</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E23" t="n">
         <v>0.08093683694111702</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F23" t="n">
         <v>0.9184961645745281</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>f__CAG-288</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>f__CAG-288</t>
         </is>
